--- a/QA/testcases/LLS/Pharmacy/010_L_Prov_Patient_App_Save_Back_Front_Navi.xlsx
+++ b/QA/testcases/LLS/Pharmacy/010_L_Prov_Patient_App_Save_Back_Front_Navi.xlsx
@@ -58,931 +58,931 @@
     <t>Reference Step</t>
   </si>
   <si>
+    <t>LLSPharmacyLogin</t>
+  </si>
+  <si>
+    <t>Launch URL and login as Pharmacy</t>
+  </si>
+  <si>
+    <t>Logged in successfully</t>
+  </si>
+  <si>
+    <t>Wait</t>
+  </si>
+  <si>
+    <t>Wait till page get loaded</t>
+  </si>
+  <si>
+    <t>Page loaded successfully</t>
+  </si>
+  <si>
+    <t>SSN9Digit</t>
+  </si>
+  <si>
+    <t>Enter SSN</t>
+  </si>
+  <si>
+    <t>SSN entered</t>
+  </si>
+  <si>
+    <t>Click</t>
+  </si>
+  <si>
+    <t>ByXPath</t>
+  </si>
+  <si>
+    <t>SEARCH_BUTTON_LINK</t>
+  </si>
+  <si>
+    <t>Click Search</t>
+  </si>
+  <si>
+    <t>Search button clicked</t>
+  </si>
+  <si>
+    <t>TypeDynamicAlpha</t>
+  </si>
+  <si>
+    <t>ByID</t>
+  </si>
+  <si>
+    <t>FIRST_NAME_FIELD</t>
+  </si>
+  <si>
+    <t>Fname</t>
+  </si>
+  <si>
+    <t>Enter First name</t>
+  </si>
+  <si>
+    <t>First name entered</t>
+  </si>
+  <si>
+    <t>LAST_NAME_FIELD</t>
+  </si>
+  <si>
+    <t>Lname</t>
+  </si>
+  <si>
+    <t>Enter last name</t>
+  </si>
+  <si>
+    <t>Last name entered</t>
+  </si>
+  <si>
+    <t>DOB_FIELD</t>
+  </si>
+  <si>
+    <t>Click on DOB field</t>
+  </si>
+  <si>
+    <t>Clicked</t>
+  </si>
+  <si>
+    <t>DOB_DATEPICKER</t>
+  </si>
+  <si>
+    <t>SEARCH_PATIENT_NEW</t>
+  </si>
+  <si>
+    <t>Click on search button</t>
+  </si>
+  <si>
+    <t>Wait for page to load</t>
+  </si>
+  <si>
+    <t>CREATE_APP_LINK</t>
+  </si>
+  <si>
+    <t>SelectByVisibleText</t>
+  </si>
+  <si>
+    <t>PATIENT_FUND_NAME</t>
+  </si>
+  <si>
+    <t>CML</t>
+  </si>
+  <si>
+    <t>Enter fund name</t>
+  </si>
+  <si>
+    <t>Fund name entered</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>NUM_OF_PEOPLE</t>
+  </si>
+  <si>
+    <t>Enter no of peoples</t>
+  </si>
+  <si>
+    <t>No of Peoples entered</t>
+  </si>
+  <si>
+    <t>HOUSEHOLD_INCOME</t>
+  </si>
+  <si>
+    <t>Enter household income</t>
+  </si>
+  <si>
+    <t>House income entered</t>
+  </si>
+  <si>
+    <t>DIAGNOSIS_LABEL1_YES</t>
+  </si>
+  <si>
+    <t>Click Yes</t>
+  </si>
+  <si>
+    <t>Clicked Yes</t>
+  </si>
+  <si>
+    <t>TERRITORY_LEBEL_YES</t>
+  </si>
+  <si>
+    <t>REG_ZIP_CODE</t>
+  </si>
+  <si>
+    <t>Enter Zipcode</t>
+  </si>
+  <si>
+    <t>Zipcode entered</t>
+  </si>
+  <si>
+    <t>SUBMIT_BUTTON</t>
+  </si>
+  <si>
+    <t>Click Submit</t>
+  </si>
+  <si>
+    <t>Submitted button clicked</t>
+  </si>
+  <si>
+    <t>TypeDynamicValue</t>
+  </si>
+  <si>
+    <t>PATIENT_MIDDLE_NAME</t>
+  </si>
+  <si>
+    <t>_Mname</t>
+  </si>
+  <si>
+    <t>L_APP_GENDER</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Select Gender</t>
+  </si>
+  <si>
+    <t>Gender selected</t>
+  </si>
+  <si>
+    <t>LLS_APP_RACE</t>
+  </si>
+  <si>
+    <t>Asian</t>
+  </si>
+  <si>
+    <t>Select Ethnicity</t>
+  </si>
+  <si>
+    <t>Ethnicity selected</t>
+  </si>
+  <si>
+    <t>L_APP_VETERAN</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Select Veteran</t>
+  </si>
+  <si>
+    <t>Veteran selected</t>
+  </si>
+  <si>
+    <t>L_APP_EMP_STATUS</t>
+  </si>
+  <si>
+    <t>Employed</t>
+  </si>
+  <si>
+    <t>Select Employment status</t>
+  </si>
+  <si>
+    <t>Employment status selected</t>
+  </si>
+  <si>
+    <t>L_APP_MARITAL_STATUS</t>
+  </si>
+  <si>
+    <t>Married</t>
+  </si>
+  <si>
+    <t>Select Marital status</t>
+  </si>
+  <si>
+    <t>Marital status selected</t>
+  </si>
+  <si>
+    <t>LLS_APP_HISPANIC_LATINO</t>
+  </si>
+  <si>
+    <t>NEXT_BUTTON</t>
+  </si>
+  <si>
+    <t>Click on next button</t>
+  </si>
+  <si>
+    <t>Next page navigated successfully</t>
+  </si>
+  <si>
+    <t>APP_ADDRESS_TYPE</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Select Address Type</t>
+  </si>
+  <si>
+    <t>Address Type seleceted</t>
+  </si>
+  <si>
+    <t>CONTACT_ADDRESS_LINE1</t>
+  </si>
+  <si>
+    <t>Enter Add1</t>
+  </si>
+  <si>
+    <t>add 1 entered</t>
+  </si>
+  <si>
+    <t>CONTACT_ADDRESS_LINE2</t>
+  </si>
+  <si>
+    <t>Enter Add2</t>
+  </si>
+  <si>
+    <t>add 2 entered</t>
+  </si>
+  <si>
+    <t>CONTACT_STATE</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Select state</t>
+  </si>
+  <si>
+    <t>State selected</t>
+  </si>
+  <si>
+    <t>CONTACT_CITY</t>
+  </si>
+  <si>
+    <t>Sacramento</t>
+  </si>
+  <si>
+    <t>Enter CIty</t>
+  </si>
+  <si>
+    <t>City entered</t>
+  </si>
+  <si>
+    <t>APP_COUNTRY</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Enter Country</t>
+  </si>
+  <si>
+    <t>Coutry entered</t>
+  </si>
+  <si>
+    <t>CONTACT_PHONE_TYPE</t>
+  </si>
+  <si>
+    <t>Cell</t>
+  </si>
+  <si>
+    <t>CONTACT_PNONE_NUMBER</t>
+  </si>
+  <si>
+    <t>CONTACT_SEQUENCE</t>
+  </si>
+  <si>
+    <t>Primary</t>
+  </si>
+  <si>
+    <t>LLS_REFERREDBY</t>
+  </si>
+  <si>
+    <t>LLS</t>
+  </si>
+  <si>
+    <t>PREVIOUS_BUTTON</t>
+  </si>
+  <si>
+    <t>Click previous button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navigate back to previous page </t>
+  </si>
+  <si>
+    <t>APP_AUTHORIZE_PERSON</t>
+  </si>
+  <si>
+    <t>APP_AUTHORIZE_FNAME</t>
+  </si>
+  <si>
+    <t>TestingBab</t>
+  </si>
+  <si>
+    <t>Enter First  name</t>
+  </si>
+  <si>
+    <t>APP_AUTHORIZE_LNAME</t>
+  </si>
+  <si>
+    <t>bab</t>
+  </si>
+  <si>
+    <t>Enter Last name</t>
+  </si>
+  <si>
+    <t>APP_AUTHO_RELATIONSHIP</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>Select Relationship</t>
+  </si>
+  <si>
+    <t>Relationship selected</t>
+  </si>
+  <si>
+    <t>TenDigitPhone</t>
+  </si>
+  <si>
+    <t>APP_AUTHO_PHONE</t>
+  </si>
+  <si>
+    <t>Enter phone number</t>
+  </si>
+  <si>
+    <t>phone number entered'</t>
+  </si>
+  <si>
+    <t>LLS_AUTH_PERSON_AUTHORITY</t>
+  </si>
+  <si>
+    <t>Power of Attorney</t>
+  </si>
+  <si>
+    <t>APP_PRI_INSURANCE</t>
+  </si>
+  <si>
+    <t>Con</t>
+  </si>
+  <si>
+    <t>Enter Insurance name</t>
+  </si>
+  <si>
+    <t>Insurance entered</t>
+  </si>
+  <si>
+    <t>Enter</t>
+  </si>
+  <si>
+    <t>Select Insurance type</t>
+  </si>
+  <si>
+    <t>Insurance selected</t>
+  </si>
+  <si>
+    <t>SelectByIndex</t>
+  </si>
+  <si>
+    <t>APP_INS_TYPE</t>
+  </si>
+  <si>
+    <t>Insurance type selected</t>
+  </si>
+  <si>
+    <t>APP_PLANTYPE</t>
+  </si>
+  <si>
+    <t>Select Plan type</t>
+  </si>
+  <si>
+    <t>Plan type selected</t>
+  </si>
+  <si>
+    <t>APP_INS_NUMBER</t>
+  </si>
+  <si>
+    <t>Enter Policy number</t>
+  </si>
+  <si>
+    <t>Policy number entered</t>
+  </si>
+  <si>
+    <t>APP_SUBS_NAME</t>
+  </si>
+  <si>
+    <t>Enter Subscriber name</t>
+  </si>
+  <si>
+    <t>Subscriber name entered</t>
+  </si>
+  <si>
+    <t>LLS_SUB_RELATION</t>
+  </si>
+  <si>
+    <t>Child</t>
+  </si>
+  <si>
+    <t>LLS_OP_PRESCRIPTION_NO</t>
+  </si>
+  <si>
+    <t>LLS_PHARMACY_INS_COVER_NO</t>
+  </si>
+  <si>
+    <t>APP_MEDICARE_PART_NO</t>
+  </si>
+  <si>
+    <t>Do you have Medicare Part D?</t>
+  </si>
+  <si>
+    <t>Entered</t>
+  </si>
+  <si>
+    <t>LLS_PREVIOUSLY_INSURED_NO</t>
+  </si>
+  <si>
+    <t>LLS_UNINSURED_PRIOR_NO</t>
+  </si>
+  <si>
+    <t>APP_SEC_INSURANCE_NO</t>
+  </si>
+  <si>
+    <t>Do you have Secondary Insurance?</t>
+  </si>
+  <si>
+    <t>No clicked</t>
+  </si>
+  <si>
+    <t>PHYSICIAN_CHECKBOX</t>
+  </si>
+  <si>
+    <t>PRIMAY_DIAGNOSIS</t>
+  </si>
+  <si>
+    <t>Type Primary Diagnosis</t>
+  </si>
+  <si>
+    <t>Primary Diagnosis entered</t>
+  </si>
+  <si>
+    <t>Select Primary Diagnosis</t>
+  </si>
+  <si>
+    <t>Primary Diagnosis selected</t>
+  </si>
+  <si>
+    <t>DATE_OF_DIAGNOSIS</t>
+  </si>
+  <si>
+    <t>Select Diagnosis date</t>
+  </si>
+  <si>
+    <t>Diagnosis date selected</t>
+  </si>
+  <si>
+    <t>APP_SUBS_DOB_DATE</t>
+  </si>
+  <si>
+    <t>LLS_P_SPECIALITY</t>
+  </si>
+  <si>
+    <t>LLS_T_SETTING</t>
+  </si>
+  <si>
+    <t>MEDICATION_NAME</t>
+  </si>
+  <si>
+    <t>Type Medication name</t>
+  </si>
+  <si>
+    <t>Medication name entered</t>
+  </si>
+  <si>
+    <t>Select Medication name</t>
+  </si>
+  <si>
+    <t>Medication name selected</t>
+  </si>
+  <si>
+    <t>DOSAGE</t>
+  </si>
+  <si>
+    <t>TestDosage</t>
+  </si>
+  <si>
+    <t>Enter Dosage</t>
+  </si>
+  <si>
+    <t>Dosage entered</t>
+  </si>
+  <si>
+    <t>FREQUENCY</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>Enter frequency</t>
+  </si>
+  <si>
+    <t>Frequency entered</t>
+  </si>
+  <si>
+    <t>AGREE_SUBMIT_BUTTON</t>
+  </si>
+  <si>
+    <t>Click on AGREE and Submit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Button clicked </t>
+  </si>
+  <si>
+    <t>Wait for popup</t>
+  </si>
+  <si>
+    <t>Popup loaded</t>
+  </si>
+  <si>
+    <t>DoubleClick</t>
+  </si>
+  <si>
+    <t>AGREE_BUTTON</t>
+  </si>
+  <si>
+    <t>Click Agree button</t>
+  </si>
+  <si>
+    <t>Agree button clicked</t>
+  </si>
+  <si>
+    <t>E_SIGNATURE</t>
+  </si>
+  <si>
+    <t>sign</t>
+  </si>
+  <si>
+    <t>Enter Signature</t>
+  </si>
+  <si>
+    <t>Signature entered</t>
+  </si>
+  <si>
+    <t>SIGN_AND_SUBMIT_BUTTON</t>
+  </si>
+  <si>
+    <t>Click Submit button</t>
+  </si>
+  <si>
+    <t>Submit button clicked</t>
+  </si>
+  <si>
+    <t>RETURN_HOME</t>
+  </si>
+  <si>
+    <t>Click on return home</t>
+  </si>
+  <si>
+    <t>Return home clicked</t>
+  </si>
+  <si>
+    <t>PATIENT_LOGOUT</t>
+  </si>
+  <si>
+    <t>Click on logout</t>
+  </si>
+  <si>
+    <t>Logout successfully</t>
+  </si>
+  <si>
+    <t>Actions</t>
+  </si>
+  <si>
+    <t>GetUrl</t>
+  </si>
+  <si>
+    <t>ByName</t>
+  </si>
+  <si>
+    <t>NavigateToURL</t>
+  </si>
+  <si>
+    <t>ByOrName</t>
+  </si>
+  <si>
+    <t>WaitTime</t>
+  </si>
+  <si>
+    <t>ByLinkText</t>
+  </si>
+  <si>
+    <t>Maximize</t>
+  </si>
+  <si>
+    <t>ByTagName</t>
+  </si>
+  <si>
+    <t>ByClassName</t>
+  </si>
+  <si>
+    <t>ActionClick</t>
+  </si>
+  <si>
+    <t>ByCssSelector</t>
+  </si>
+  <si>
+    <t>JsClick</t>
+  </si>
+  <si>
+    <t>Normal Xpath</t>
+  </si>
+  <si>
+    <t>ByPartialLinkText</t>
+  </si>
+  <si>
+    <t>Xpath</t>
+  </si>
+  <si>
+    <t>ClickAt</t>
+  </si>
+  <si>
+    <t>ClickAndHold</t>
+  </si>
+  <si>
+    <t>Clear</t>
+  </si>
+  <si>
+    <t>ClearAndType</t>
+  </si>
+  <si>
+    <t>ActionType</t>
+  </si>
+  <si>
+    <t>Submit</t>
+  </si>
+  <si>
+    <t>MouseOver</t>
+  </si>
+  <si>
+    <t>MouseOverAndClick</t>
+  </si>
+  <si>
+    <t>GetText</t>
+  </si>
+  <si>
+    <t>GetAttribute</t>
+  </si>
+  <si>
+    <t>GetCount</t>
+  </si>
+  <si>
+    <t>GetCurrentURL</t>
+  </si>
+  <si>
+    <t>SelectCheckBox</t>
+  </si>
+  <si>
+    <t>SelectByValue</t>
+  </si>
+  <si>
+    <t>DeSelectCheckBox</t>
+  </si>
+  <si>
+    <t>DeSelectByIndex</t>
+  </si>
+  <si>
+    <t>DeSelectByValue</t>
+  </si>
+  <si>
+    <t>DeSelectByVisibleText</t>
+  </si>
+  <si>
+    <t>SwitchFrameByName</t>
+  </si>
+  <si>
+    <t>SwitchFrameByIndex</t>
+  </si>
+  <si>
+    <t>SwitchFrameByXpath</t>
+  </si>
+  <si>
+    <t>SwitchFrame</t>
+  </si>
+  <si>
+    <t>SwitchToDefaultFrame</t>
+  </si>
+  <si>
+    <t>Refresh</t>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>Forward</t>
+  </si>
+  <si>
+    <t>AlertOk</t>
+  </si>
+  <si>
+    <t>DismissAlert</t>
+  </si>
+  <si>
+    <t>AlertDismiss</t>
+  </si>
+  <si>
+    <t>PromptBox</t>
+  </si>
+  <si>
+    <t>GenerateAlert</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>GetWindowHandle</t>
+  </si>
+  <si>
+    <t>SwitchToDefaultWindow</t>
+  </si>
+  <si>
+    <t>SwitchToDefaultContent</t>
+  </si>
+  <si>
+    <t>GetAutoIt</t>
+  </si>
+  <si>
+    <t>ScrollDown</t>
+  </si>
+  <si>
+    <t>ScrollUp</t>
+  </si>
+  <si>
+    <t>ScrollBottom</t>
+  </si>
+  <si>
+    <t>KeyboardPageUp</t>
+  </si>
+  <si>
+    <t>KeyboardPageDown</t>
+  </si>
+  <si>
+    <t>KeyboardEnd</t>
+  </si>
+  <si>
+    <t>KeyboardTab</t>
+  </si>
+  <si>
+    <t>PageMaximize</t>
+  </si>
+  <si>
+    <t>KeyboardArrowUp</t>
+  </si>
+  <si>
+    <t>KeyboardArrowDown</t>
+  </si>
+  <si>
+    <t>KeyboardArrowLeft</t>
+  </si>
+  <si>
+    <t>KeyboardArrowRight</t>
+  </si>
+  <si>
+    <t>Drag</t>
+  </si>
+  <si>
+    <t>Drop</t>
+  </si>
+  <si>
+    <t>VerifyElementIsSelected</t>
+  </si>
+  <si>
+    <t>VerifyElementIsPresent</t>
+  </si>
+  <si>
+    <t>VerifyElementIsNotPresent</t>
+  </si>
+  <si>
+    <t>VerifyElementIsEnable</t>
+  </si>
+  <si>
+    <t>WaitUntilVisibilityOfElement</t>
+  </si>
+  <si>
+    <t>WaitUntilInvisibilityOfElement</t>
+  </si>
+  <si>
+    <t>VerifyTextIsPresent</t>
+  </si>
+  <si>
+    <t>WaitUntilTextToBeNotPresent</t>
+  </si>
+  <si>
+    <t>WaitUntilTextToBePresent</t>
+  </si>
+  <si>
+    <t>WaitUntilElementToBeClickable</t>
+  </si>
+  <si>
+    <t>WaitUntilElementToBeSelected</t>
+  </si>
+  <si>
+    <t>TextToBePresentInElementValue</t>
+  </si>
+  <si>
+    <t>WaitForElementPresent</t>
+  </si>
+  <si>
+    <t>WaitForElementNotPresent</t>
+  </si>
+  <si>
+    <t>CheckTwoString</t>
+  </si>
+  <si>
+    <t>DeleteAllCookies</t>
+  </si>
+  <si>
+    <t>TakeScreeShot</t>
+  </si>
+  <si>
+    <t>Highlight</t>
+  </si>
+  <si>
+    <t>NewTab</t>
+  </si>
+  <si>
+    <t>CloseTab</t>
+  </si>
+  <si>
+    <t>SendHttpPost</t>
+  </si>
+  <si>
+    <t>SplitAndOpenURL</t>
+  </si>
+  <si>
+    <t>WaitForAjaxQuery</t>
+  </si>
+  <si>
+    <t>TypeUsingReference</t>
+  </si>
+  <si>
+    <t>CurrentWindowName</t>
+  </si>
+  <si>
+    <t>GetSecondWindowHandle</t>
+  </si>
+  <si>
+    <t>SwitchParticularWindow</t>
+  </si>
+  <si>
+    <t>TypeDynamicValueReuse</t>
+  </si>
+  <si>
+    <t>PatientLogin</t>
+  </si>
+  <si>
+    <t>PortalSelection</t>
+  </si>
+  <si>
+    <t>PatientSSN</t>
+  </si>
+  <si>
+    <t>TypeUpload</t>
+  </si>
+  <si>
+    <t>PharmacyLogin</t>
+  </si>
+  <si>
+    <t>ProviderLogin</t>
+  </si>
+  <si>
     <t>LLSProviderLogin</t>
-  </si>
-  <si>
-    <t>Launch URL and login as Pharmacy</t>
-  </si>
-  <si>
-    <t>Logged in successfully</t>
-  </si>
-  <si>
-    <t>Wait</t>
-  </si>
-  <si>
-    <t>Wait till page get loaded</t>
-  </si>
-  <si>
-    <t>Page loaded successfully</t>
-  </si>
-  <si>
-    <t>SSN9Digit</t>
-  </si>
-  <si>
-    <t>Enter SSN</t>
-  </si>
-  <si>
-    <t>SSN entered</t>
-  </si>
-  <si>
-    <t>Click</t>
-  </si>
-  <si>
-    <t>ByXPath</t>
-  </si>
-  <si>
-    <t>SEARCH_BUTTON_LINK</t>
-  </si>
-  <si>
-    <t>Click Search</t>
-  </si>
-  <si>
-    <t>Search button clicked</t>
-  </si>
-  <si>
-    <t>TypeDynamicAlpha</t>
-  </si>
-  <si>
-    <t>ByID</t>
-  </si>
-  <si>
-    <t>FIRST_NAME_FIELD</t>
-  </si>
-  <si>
-    <t>Fname</t>
-  </si>
-  <si>
-    <t>Enter First name</t>
-  </si>
-  <si>
-    <t>First name entered</t>
-  </si>
-  <si>
-    <t>LAST_NAME_FIELD</t>
-  </si>
-  <si>
-    <t>Lname</t>
-  </si>
-  <si>
-    <t>Enter last name</t>
-  </si>
-  <si>
-    <t>Last name entered</t>
-  </si>
-  <si>
-    <t>DOB_FIELD</t>
-  </si>
-  <si>
-    <t>Click on DOB field</t>
-  </si>
-  <si>
-    <t>Clicked</t>
-  </si>
-  <si>
-    <t>DOB_DATEPICKER</t>
-  </si>
-  <si>
-    <t>SEARCH_PATIENT_NEW</t>
-  </si>
-  <si>
-    <t>Click on search button</t>
-  </si>
-  <si>
-    <t>Wait for page to load</t>
-  </si>
-  <si>
-    <t>CREATE_APP_LINK</t>
-  </si>
-  <si>
-    <t>SelectByVisibleText</t>
-  </si>
-  <si>
-    <t>PATIENT_FUND_NAME</t>
-  </si>
-  <si>
-    <t>CML</t>
-  </si>
-  <si>
-    <t>Enter fund name</t>
-  </si>
-  <si>
-    <t>Fund name entered</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>NUM_OF_PEOPLE</t>
-  </si>
-  <si>
-    <t>Enter no of peoples</t>
-  </si>
-  <si>
-    <t>No of Peoples entered</t>
-  </si>
-  <si>
-    <t>HOUSEHOLD_INCOME</t>
-  </si>
-  <si>
-    <t>Enter household income</t>
-  </si>
-  <si>
-    <t>House income entered</t>
-  </si>
-  <si>
-    <t>DIAGNOSIS_LABEL1_YES</t>
-  </si>
-  <si>
-    <t>Click Yes</t>
-  </si>
-  <si>
-    <t>Clicked Yes</t>
-  </si>
-  <si>
-    <t>TERRITORY_LEBEL_YES</t>
-  </si>
-  <si>
-    <t>REG_ZIP_CODE</t>
-  </si>
-  <si>
-    <t>Enter Zipcode</t>
-  </si>
-  <si>
-    <t>Zipcode entered</t>
-  </si>
-  <si>
-    <t>SUBMIT_BUTTON</t>
-  </si>
-  <si>
-    <t>Click Submit</t>
-  </si>
-  <si>
-    <t>Submitted button clicked</t>
-  </si>
-  <si>
-    <t>TypeDynamicValue</t>
-  </si>
-  <si>
-    <t>PATIENT_MIDDLE_NAME</t>
-  </si>
-  <si>
-    <t>_Mname</t>
-  </si>
-  <si>
-    <t>L_APP_GENDER</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Select Gender</t>
-  </si>
-  <si>
-    <t>Gender selected</t>
-  </si>
-  <si>
-    <t>LLS_APP_RACE</t>
-  </si>
-  <si>
-    <t>Asian</t>
-  </si>
-  <si>
-    <t>Select Ethnicity</t>
-  </si>
-  <si>
-    <t>Ethnicity selected</t>
-  </si>
-  <si>
-    <t>L_APP_VETERAN</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Select Veteran</t>
-  </si>
-  <si>
-    <t>Veteran selected</t>
-  </si>
-  <si>
-    <t>L_APP_EMP_STATUS</t>
-  </si>
-  <si>
-    <t>Employed</t>
-  </si>
-  <si>
-    <t>Select Employment status</t>
-  </si>
-  <si>
-    <t>Employment status selected</t>
-  </si>
-  <si>
-    <t>L_APP_MARITAL_STATUS</t>
-  </si>
-  <si>
-    <t>Married</t>
-  </si>
-  <si>
-    <t>Select Marital status</t>
-  </si>
-  <si>
-    <t>Marital status selected</t>
-  </si>
-  <si>
-    <t>LLS_APP_HISPANIC_LATINO</t>
-  </si>
-  <si>
-    <t>NEXT_BUTTON</t>
-  </si>
-  <si>
-    <t>Click on next button</t>
-  </si>
-  <si>
-    <t>Next page navigated successfully</t>
-  </si>
-  <si>
-    <t>APP_ADDRESS_TYPE</t>
-  </si>
-  <si>
-    <t>Home</t>
-  </si>
-  <si>
-    <t>Select Address Type</t>
-  </si>
-  <si>
-    <t>Address Type seleceted</t>
-  </si>
-  <si>
-    <t>CONTACT_ADDRESS_LINE1</t>
-  </si>
-  <si>
-    <t>Enter Add1</t>
-  </si>
-  <si>
-    <t>add 1 entered</t>
-  </si>
-  <si>
-    <t>CONTACT_ADDRESS_LINE2</t>
-  </si>
-  <si>
-    <t>Enter Add2</t>
-  </si>
-  <si>
-    <t>add 2 entered</t>
-  </si>
-  <si>
-    <t>CONTACT_STATE</t>
-  </si>
-  <si>
-    <t>California</t>
-  </si>
-  <si>
-    <t>Select state</t>
-  </si>
-  <si>
-    <t>State selected</t>
-  </si>
-  <si>
-    <t>CONTACT_CITY</t>
-  </si>
-  <si>
-    <t>Sacramento</t>
-  </si>
-  <si>
-    <t>Enter CIty</t>
-  </si>
-  <si>
-    <t>City entered</t>
-  </si>
-  <si>
-    <t>APP_COUNTRY</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Enter Country</t>
-  </si>
-  <si>
-    <t>Coutry entered</t>
-  </si>
-  <si>
-    <t>CONTACT_PHONE_TYPE</t>
-  </si>
-  <si>
-    <t>Cell</t>
-  </si>
-  <si>
-    <t>CONTACT_PNONE_NUMBER</t>
-  </si>
-  <si>
-    <t>CONTACT_SEQUENCE</t>
-  </si>
-  <si>
-    <t>Primary</t>
-  </si>
-  <si>
-    <t>LLS_REFERREDBY</t>
-  </si>
-  <si>
-    <t>LLS</t>
-  </si>
-  <si>
-    <t>PREVIOUS_BUTTON</t>
-  </si>
-  <si>
-    <t>Click previous button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Navigate back to previous page </t>
-  </si>
-  <si>
-    <t>APP_AUTHORIZE_PERSON</t>
-  </si>
-  <si>
-    <t>APP_AUTHORIZE_FNAME</t>
-  </si>
-  <si>
-    <t>TestingBab</t>
-  </si>
-  <si>
-    <t>Enter First  name</t>
-  </si>
-  <si>
-    <t>APP_AUTHORIZE_LNAME</t>
-  </si>
-  <si>
-    <t>bab</t>
-  </si>
-  <si>
-    <t>Enter Last name</t>
-  </si>
-  <si>
-    <t>APP_AUTHO_RELATIONSHIP</t>
-  </si>
-  <si>
-    <t>Family</t>
-  </si>
-  <si>
-    <t>Select Relationship</t>
-  </si>
-  <si>
-    <t>Relationship selected</t>
-  </si>
-  <si>
-    <t>TenDigitPhone</t>
-  </si>
-  <si>
-    <t>APP_AUTHO_PHONE</t>
-  </si>
-  <si>
-    <t>Enter phone number</t>
-  </si>
-  <si>
-    <t>phone number entered'</t>
-  </si>
-  <si>
-    <t>LLS_AUTH_PERSON_AUTHORITY</t>
-  </si>
-  <si>
-    <t>Power of Attorney</t>
-  </si>
-  <si>
-    <t>APP_PRI_INSURANCE</t>
-  </si>
-  <si>
-    <t>Con</t>
-  </si>
-  <si>
-    <t>Enter Insurance name</t>
-  </si>
-  <si>
-    <t>Insurance entered</t>
-  </si>
-  <si>
-    <t>Enter</t>
-  </si>
-  <si>
-    <t>Select Insurance type</t>
-  </si>
-  <si>
-    <t>Insurance selected</t>
-  </si>
-  <si>
-    <t>SelectByIndex</t>
-  </si>
-  <si>
-    <t>APP_INS_TYPE</t>
-  </si>
-  <si>
-    <t>Insurance type selected</t>
-  </si>
-  <si>
-    <t>APP_PLANTYPE</t>
-  </si>
-  <si>
-    <t>Select Plan type</t>
-  </si>
-  <si>
-    <t>Plan type selected</t>
-  </si>
-  <si>
-    <t>APP_INS_NUMBER</t>
-  </si>
-  <si>
-    <t>Enter Policy number</t>
-  </si>
-  <si>
-    <t>Policy number entered</t>
-  </si>
-  <si>
-    <t>APP_SUBS_NAME</t>
-  </si>
-  <si>
-    <t>Enter Subscriber name</t>
-  </si>
-  <si>
-    <t>Subscriber name entered</t>
-  </si>
-  <si>
-    <t>LLS_SUB_RELATION</t>
-  </si>
-  <si>
-    <t>Child</t>
-  </si>
-  <si>
-    <t>LLS_OP_PRESCRIPTION_NO</t>
-  </si>
-  <si>
-    <t>LLS_PHARMACY_INS_COVER_NO</t>
-  </si>
-  <si>
-    <t>APP_MEDICARE_PART_NO</t>
-  </si>
-  <si>
-    <t>Do you have Medicare Part D?</t>
-  </si>
-  <si>
-    <t>Entered</t>
-  </si>
-  <si>
-    <t>LLS_PREVIOUSLY_INSURED_NO</t>
-  </si>
-  <si>
-    <t>LLS_UNINSURED_PRIOR_NO</t>
-  </si>
-  <si>
-    <t>APP_SEC_INSURANCE_NO</t>
-  </si>
-  <si>
-    <t>Do you have Secondary Insurance?</t>
-  </si>
-  <si>
-    <t>No clicked</t>
-  </si>
-  <si>
-    <t>PHYSICIAN_CHECKBOX</t>
-  </si>
-  <si>
-    <t>PRIMAY_DIAGNOSIS</t>
-  </si>
-  <si>
-    <t>Type Primary Diagnosis</t>
-  </si>
-  <si>
-    <t>Primary Diagnosis entered</t>
-  </si>
-  <si>
-    <t>Select Primary Diagnosis</t>
-  </si>
-  <si>
-    <t>Primary Diagnosis selected</t>
-  </si>
-  <si>
-    <t>DATE_OF_DIAGNOSIS</t>
-  </si>
-  <si>
-    <t>Select Diagnosis date</t>
-  </si>
-  <si>
-    <t>Diagnosis date selected</t>
-  </si>
-  <si>
-    <t>APP_SUBS_DOB_DATE</t>
-  </si>
-  <si>
-    <t>LLS_P_SPECIALITY</t>
-  </si>
-  <si>
-    <t>LLS_T_SETTING</t>
-  </si>
-  <si>
-    <t>MEDICATION_NAME</t>
-  </si>
-  <si>
-    <t>Type Medication name</t>
-  </si>
-  <si>
-    <t>Medication name entered</t>
-  </si>
-  <si>
-    <t>Select Medication name</t>
-  </si>
-  <si>
-    <t>Medication name selected</t>
-  </si>
-  <si>
-    <t>DOSAGE</t>
-  </si>
-  <si>
-    <t>TestDosage</t>
-  </si>
-  <si>
-    <t>Enter Dosage</t>
-  </si>
-  <si>
-    <t>Dosage entered</t>
-  </si>
-  <si>
-    <t>FREQUENCY</t>
-  </si>
-  <si>
-    <t>Daily</t>
-  </si>
-  <si>
-    <t>Enter frequency</t>
-  </si>
-  <si>
-    <t>Frequency entered</t>
-  </si>
-  <si>
-    <t>AGREE_SUBMIT_BUTTON</t>
-  </si>
-  <si>
-    <t>Click on AGREE and Submit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Button clicked </t>
-  </si>
-  <si>
-    <t>Wait for popup</t>
-  </si>
-  <si>
-    <t>Popup loaded</t>
-  </si>
-  <si>
-    <t>DoubleClick</t>
-  </si>
-  <si>
-    <t>AGREE_BUTTON</t>
-  </si>
-  <si>
-    <t>Click Agree button</t>
-  </si>
-  <si>
-    <t>Agree button clicked</t>
-  </si>
-  <si>
-    <t>E_SIGNATURE</t>
-  </si>
-  <si>
-    <t>sign</t>
-  </si>
-  <si>
-    <t>Enter Signature</t>
-  </si>
-  <si>
-    <t>Signature entered</t>
-  </si>
-  <si>
-    <t>SIGN_AND_SUBMIT_BUTTON</t>
-  </si>
-  <si>
-    <t>Click Submit button</t>
-  </si>
-  <si>
-    <t>Submit button clicked</t>
-  </si>
-  <si>
-    <t>RETURN_HOME</t>
-  </si>
-  <si>
-    <t>Click on return home</t>
-  </si>
-  <si>
-    <t>Return home clicked</t>
-  </si>
-  <si>
-    <t>PATIENT_LOGOUT</t>
-  </si>
-  <si>
-    <t>Click on logout</t>
-  </si>
-  <si>
-    <t>Logout successfully</t>
-  </si>
-  <si>
-    <t>Actions</t>
-  </si>
-  <si>
-    <t>GetUrl</t>
-  </si>
-  <si>
-    <t>ByName</t>
-  </si>
-  <si>
-    <t>NavigateToURL</t>
-  </si>
-  <si>
-    <t>ByOrName</t>
-  </si>
-  <si>
-    <t>WaitTime</t>
-  </si>
-  <si>
-    <t>ByLinkText</t>
-  </si>
-  <si>
-    <t>Maximize</t>
-  </si>
-  <si>
-    <t>ByTagName</t>
-  </si>
-  <si>
-    <t>ByClassName</t>
-  </si>
-  <si>
-    <t>ActionClick</t>
-  </si>
-  <si>
-    <t>ByCssSelector</t>
-  </si>
-  <si>
-    <t>JsClick</t>
-  </si>
-  <si>
-    <t>Normal Xpath</t>
-  </si>
-  <si>
-    <t>ByPartialLinkText</t>
-  </si>
-  <si>
-    <t>Xpath</t>
-  </si>
-  <si>
-    <t>ClickAt</t>
-  </si>
-  <si>
-    <t>ClickAndHold</t>
-  </si>
-  <si>
-    <t>Clear</t>
-  </si>
-  <si>
-    <t>ClearAndType</t>
-  </si>
-  <si>
-    <t>ActionType</t>
-  </si>
-  <si>
-    <t>Submit</t>
-  </si>
-  <si>
-    <t>MouseOver</t>
-  </si>
-  <si>
-    <t>MouseOverAndClick</t>
-  </si>
-  <si>
-    <t>GetText</t>
-  </si>
-  <si>
-    <t>GetAttribute</t>
-  </si>
-  <si>
-    <t>GetCount</t>
-  </si>
-  <si>
-    <t>GetCurrentURL</t>
-  </si>
-  <si>
-    <t>SelectCheckBox</t>
-  </si>
-  <si>
-    <t>SelectByValue</t>
-  </si>
-  <si>
-    <t>DeSelectCheckBox</t>
-  </si>
-  <si>
-    <t>DeSelectByIndex</t>
-  </si>
-  <si>
-    <t>DeSelectByValue</t>
-  </si>
-  <si>
-    <t>DeSelectByVisibleText</t>
-  </si>
-  <si>
-    <t>SwitchFrameByName</t>
-  </si>
-  <si>
-    <t>SwitchFrameByIndex</t>
-  </si>
-  <si>
-    <t>SwitchFrameByXpath</t>
-  </si>
-  <si>
-    <t>SwitchFrame</t>
-  </si>
-  <si>
-    <t>SwitchToDefaultFrame</t>
-  </si>
-  <si>
-    <t>Refresh</t>
-  </si>
-  <si>
-    <t>Back</t>
-  </si>
-  <si>
-    <t>Forward</t>
-  </si>
-  <si>
-    <t>AlertOk</t>
-  </si>
-  <si>
-    <t>DismissAlert</t>
-  </si>
-  <si>
-    <t>AlertDismiss</t>
-  </si>
-  <si>
-    <t>PromptBox</t>
-  </si>
-  <si>
-    <t>GenerateAlert</t>
-  </si>
-  <si>
-    <t>Close</t>
-  </si>
-  <si>
-    <t>GetWindowHandle</t>
-  </si>
-  <si>
-    <t>SwitchToDefaultWindow</t>
-  </si>
-  <si>
-    <t>SwitchToDefaultContent</t>
-  </si>
-  <si>
-    <t>GetAutoIt</t>
-  </si>
-  <si>
-    <t>ScrollDown</t>
-  </si>
-  <si>
-    <t>ScrollUp</t>
-  </si>
-  <si>
-    <t>ScrollBottom</t>
-  </si>
-  <si>
-    <t>KeyboardPageUp</t>
-  </si>
-  <si>
-    <t>KeyboardPageDown</t>
-  </si>
-  <si>
-    <t>KeyboardEnd</t>
-  </si>
-  <si>
-    <t>KeyboardTab</t>
-  </si>
-  <si>
-    <t>PageMaximize</t>
-  </si>
-  <si>
-    <t>KeyboardArrowUp</t>
-  </si>
-  <si>
-    <t>KeyboardArrowDown</t>
-  </si>
-  <si>
-    <t>KeyboardArrowLeft</t>
-  </si>
-  <si>
-    <t>KeyboardArrowRight</t>
-  </si>
-  <si>
-    <t>Drag</t>
-  </si>
-  <si>
-    <t>Drop</t>
-  </si>
-  <si>
-    <t>VerifyElementIsSelected</t>
-  </si>
-  <si>
-    <t>VerifyElementIsPresent</t>
-  </si>
-  <si>
-    <t>VerifyElementIsNotPresent</t>
-  </si>
-  <si>
-    <t>VerifyElementIsEnable</t>
-  </si>
-  <si>
-    <t>WaitUntilVisibilityOfElement</t>
-  </si>
-  <si>
-    <t>WaitUntilInvisibilityOfElement</t>
-  </si>
-  <si>
-    <t>VerifyTextIsPresent</t>
-  </si>
-  <si>
-    <t>WaitUntilTextToBeNotPresent</t>
-  </si>
-  <si>
-    <t>WaitUntilTextToBePresent</t>
-  </si>
-  <si>
-    <t>WaitUntilElementToBeClickable</t>
-  </si>
-  <si>
-    <t>WaitUntilElementToBeSelected</t>
-  </si>
-  <si>
-    <t>TextToBePresentInElementValue</t>
-  </si>
-  <si>
-    <t>WaitForElementPresent</t>
-  </si>
-  <si>
-    <t>WaitForElementNotPresent</t>
-  </si>
-  <si>
-    <t>CheckTwoString</t>
-  </si>
-  <si>
-    <t>DeleteAllCookies</t>
-  </si>
-  <si>
-    <t>TakeScreeShot</t>
-  </si>
-  <si>
-    <t>Highlight</t>
-  </si>
-  <si>
-    <t>NewTab</t>
-  </si>
-  <si>
-    <t>CloseTab</t>
-  </si>
-  <si>
-    <t>SendHttpPost</t>
-  </si>
-  <si>
-    <t>SplitAndOpenURL</t>
-  </si>
-  <si>
-    <t>WaitForAjaxQuery</t>
-  </si>
-  <si>
-    <t>TypeUsingReference</t>
-  </si>
-  <si>
-    <t>CurrentWindowName</t>
-  </si>
-  <si>
-    <t>GetSecondWindowHandle</t>
-  </si>
-  <si>
-    <t>SwitchParticularWindow</t>
-  </si>
-  <si>
-    <t>TypeDynamicValueReuse</t>
-  </si>
-  <si>
-    <t>PatientLogin</t>
-  </si>
-  <si>
-    <t>PortalSelection</t>
-  </si>
-  <si>
-    <t>PatientSSN</t>
-  </si>
-  <si>
-    <t>TypeUpload</t>
-  </si>
-  <si>
-    <t>PharmacyLogin</t>
-  </si>
-  <si>
-    <t>ProviderLogin</t>
-  </si>
-  <si>
-    <t>LLSPharmacyLogin</t>
   </si>
 </sst>
 </file>
@@ -990,8 +990,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -1039,10 +1039,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1053,18 +1053,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1076,16 +1085,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1107,6 +1138,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1115,33 +1154,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1155,21 +1169,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1202,7 +1202,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1214,43 +1250,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1262,49 +1268,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1322,19 +1286,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1346,13 +1310,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1370,7 +1328,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1382,12 +1352,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1438,10 +1438,30 @@
       <left/>
       <right/>
       <top style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color theme="4" tint="0.399945066682943"/>
       </top>
       <bottom style="thin">
         <color theme="4" tint="0.399945066682943"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1463,8 +1483,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1481,21 +1503,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1518,19 +1525,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1538,15 +1549,15 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1564,134 +1575,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1700,7 +1711,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1709,7 +1720,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2155,7 +2167,7 @@
   <dimension ref="A1:H110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:D4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2897,7 +2909,7 @@
       <c r="G34" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="H34" s="8"/>
+      <c r="H34" s="17"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="10">
@@ -2943,7 +2955,7 @@
       <c r="G36" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="H36" s="8"/>
+      <c r="H36" s="17"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="10">
@@ -2991,7 +3003,7 @@
       <c r="G38" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="H38" s="8"/>
+      <c r="H38" s="17"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="10">
@@ -3031,7 +3043,7 @@
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
-      <c r="H40" s="8"/>
+      <c r="H40" s="17"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="10">
@@ -3073,7 +3085,7 @@
       <c r="G42" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H42" s="8"/>
+      <c r="H42" s="17"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="10">
@@ -3113,7 +3125,7 @@
       </c>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
-      <c r="H44" s="8"/>
+      <c r="H44" s="17"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="10">
@@ -3151,7 +3163,7 @@
       </c>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
-      <c r="H46" s="8"/>
+      <c r="H46" s="17"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="10">
@@ -3275,7 +3287,7 @@
       <c r="G52" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H52" s="8"/>
+      <c r="H52" s="17"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="10">
@@ -3323,7 +3335,7 @@
       <c r="G54" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="H54" s="8"/>
+      <c r="H54" s="17"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="10">
@@ -3365,7 +3377,7 @@
       </c>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
-      <c r="H56" s="8"/>
+      <c r="H56" s="17"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="10">
@@ -3403,7 +3415,7 @@
       </c>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
-      <c r="H58" s="8"/>
+      <c r="H58" s="17"/>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="10">
@@ -3523,7 +3535,7 @@
       </c>
       <c r="F64" s="9"/>
       <c r="G64" s="9"/>
-      <c r="H64" s="8"/>
+      <c r="H64" s="17"/>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="10">
@@ -3565,7 +3577,7 @@
       <c r="G66" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="H66" s="8"/>
+      <c r="H66" s="17"/>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="10">
@@ -3611,7 +3623,7 @@
       <c r="G68" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="H68" s="8"/>
+      <c r="H68" s="17"/>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="10">
@@ -3653,7 +3665,7 @@
       </c>
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
-      <c r="H70" s="8"/>
+      <c r="H70" s="17"/>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="10">
@@ -3689,7 +3701,7 @@
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
-      <c r="H72" s="8"/>
+      <c r="H72" s="17"/>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="10">
@@ -3729,7 +3741,7 @@
       <c r="E74" s="9"/>
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
-      <c r="H74" s="8"/>
+      <c r="H74" s="17"/>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="10">
@@ -3769,7 +3781,7 @@
       <c r="G76" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="H76" s="8"/>
+      <c r="H76" s="17"/>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="10">
@@ -3811,7 +3823,7 @@
       <c r="G78" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H78" s="8"/>
+      <c r="H78" s="17"/>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="10">
@@ -3931,7 +3943,7 @@
       <c r="G84" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H84" s="8"/>
+      <c r="H84" s="17"/>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="10">
@@ -3975,7 +3987,7 @@
       <c r="G86" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="H86" s="8"/>
+      <c r="H86" s="17"/>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="10">
@@ -4009,7 +4021,7 @@
       <c r="G88" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="H88" s="8"/>
+      <c r="H88" s="17"/>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="10">
@@ -4053,7 +4065,7 @@
       <c r="G90" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="H90" s="8"/>
+      <c r="H90" s="17"/>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="10">
@@ -4089,7 +4101,7 @@
       <c r="E92" s="9"/>
       <c r="F92" s="9"/>
       <c r="G92" s="9"/>
-      <c r="H92" s="8"/>
+      <c r="H92" s="17"/>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="10">
@@ -4129,7 +4141,7 @@
       </c>
       <c r="F94" s="9"/>
       <c r="G94" s="9"/>
-      <c r="H94" s="8"/>
+      <c r="H94" s="17"/>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="10">
@@ -4171,7 +4183,7 @@
       <c r="G96" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="H96" s="8"/>
+      <c r="H96" s="17"/>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="10">
@@ -4217,7 +4229,7 @@
       <c r="G98" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H98" s="8"/>
+      <c r="H98" s="17"/>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="10">
@@ -4259,7 +4271,7 @@
       <c r="G100" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="H100" s="8"/>
+      <c r="H100" s="17"/>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="10">
@@ -4285,7 +4297,7 @@
       <c r="A102" s="10">
         <v>101</v>
       </c>
-      <c r="B102" s="8" t="s">
+      <c r="B102" s="17" t="s">
         <v>199</v>
       </c>
       <c r="C102" s="9" t="s">
@@ -4301,7 +4313,7 @@
       <c r="G102" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="H102" s="8"/>
+      <c r="H102" s="17"/>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="10">
@@ -4323,25 +4335,25 @@
       <c r="A104" s="10">
         <v>103</v>
       </c>
-      <c r="B104" s="17" t="s">
+      <c r="B104" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C104" s="17" t="s">
+      <c r="C104" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D104" s="17" t="s">
+      <c r="D104" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="E104" s="17" t="s">
+      <c r="E104" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="F104" s="17" t="s">
+      <c r="F104" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="G104" s="17" t="s">
+      <c r="G104" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="H104" s="8"/>
+      <c r="H104" s="17"/>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="10">
@@ -4379,7 +4391,7 @@
       </c>
       <c r="F106" s="9"/>
       <c r="G106" s="9"/>
-      <c r="H106" s="8"/>
+      <c r="H106" s="17"/>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="10">
@@ -4417,7 +4429,7 @@
       </c>
       <c r="F108" s="9"/>
       <c r="G108" s="9"/>
-      <c r="H108" s="8"/>
+      <c r="H108" s="17"/>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="10">
@@ -5059,7 +5071,7 @@
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>8</v>
+        <v>316</v>
       </c>
     </row>
     <row r="102" spans="3:3">
@@ -5069,7 +5081,7 @@
     </row>
     <row r="103" spans="3:3">
       <c r="C103" t="s">
-        <v>316</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
